--- a/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
+++ b/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
@@ -17,7 +17,7 @@
     <sheet name="2020" sheetId="3" r:id="rId2"/>
     <sheet name="2021" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t>2019 Draft Results</t>
   </si>
@@ -641,6 +641,9 @@
     <t>Austin Ekeler (8)</t>
   </si>
   <si>
+    <t>Tyler Boyd (4)</t>
+  </si>
+  <si>
     <t>Dede Westbrook (7)</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
     <t>AJ Brown (15)</t>
   </si>
   <si>
+    <t>Devin Singletary (15)</t>
+  </si>
+  <si>
     <t>Raheem Mostert (15)</t>
   </si>
   <si>
@@ -866,9 +872,6 @@
     <t>Andrew Luck (4)</t>
   </si>
   <si>
-    <t>Tyler Boyd (4)</t>
-  </si>
-  <si>
     <t>Matt Ryan (5)</t>
   </si>
   <si>
@@ -1415,12 +1418,21 @@
     <t>Stefon Diggs (4)</t>
   </si>
   <si>
+    <t>Kyler Murray (7)</t>
+  </si>
+  <si>
     <t>Cam Akers (5)</t>
   </si>
   <si>
+    <t>Justin Jefferson (9)</t>
+  </si>
+  <si>
     <t>Miles Sanders (6)</t>
   </si>
   <si>
+    <t>Chase Claypool (15)</t>
+  </si>
+  <si>
     <t>Josh Allen (5)</t>
   </si>
   <si>
@@ -1478,9 +1490,6 @@
     <t>Mike Williams (9)</t>
   </si>
   <si>
-    <t>Chase Claypool (15)</t>
-  </si>
-  <si>
     <t>Tyler Lockett (2)</t>
   </si>
   <si>
@@ -1646,9 +1655,6 @@
     <t>Ty Montgomery (15)</t>
   </si>
   <si>
-    <t>Justin Jefferson (9)</t>
-  </si>
-  <si>
     <t>Daniel Carlson (15)</t>
   </si>
   <si>
@@ -1721,9 +1727,6 @@
     <t>Christian Kirk (13)</t>
   </si>
   <si>
-    <t>Kyler Murray (7)</t>
-  </si>
-  <si>
     <t>Mike Davis (15)</t>
   </si>
   <si>
@@ -1935,16 +1938,14 @@
   </si>
   <si>
     <t>2022 Keepers</t>
-  </si>
-  <si>
-    <t>Devin Singletary (15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2056,7 +2057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.099978637043366805"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,52 +2229,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2281,7 +2282,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="82">
     <dxf>
       <font>
         <b val="0"/>
@@ -3395,6 +3396,440 @@
         <name val="Calibri"/>
         <family val="2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3431,20 +3866,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D8C2316-ACA9-4D04-A65F-5181114B0422}" name="Table46" displayName="Table46" ref="A23:L38" totalsRowShown="0" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D8C2316-ACA9-4D04-A65F-5181114B0422}" name="Table46" displayName="Table46" ref="A23:L38" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="A23:L38" xr:uid="{6D1E31A7-B4EC-4E3C-8393-5CFDF5653B2B}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7EB82C97-42E3-4FCE-9574-1B534017ED30}" name="Roger Samson" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{1697134F-DA9F-4361-8B35-DC312C252ACD}" name="Bobby Willen" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{4F371280-67D4-441F-9A55-2BB98A5426DC}" name="Andrew Giza" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{CAE0746F-44BA-499F-B839-F27EB0F8ED89}" name="Jenny Jacob" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{1697134F-DA9F-4361-8B35-DC312C252ACD}" name="Bobby Willen" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{4F371280-67D4-441F-9A55-2BB98A5426DC}" name="Andrew Giza" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{CAE0746F-44BA-499F-B839-F27EB0F8ED89}" name="Jenny Jacob" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="78"/>
     <tableColumn id="12" xr3:uid="{A2BBB2B5-1152-4CE8-8C27-5D96BA423A84}" name="Michael Doney" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3452,21 +3887,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="78">
   <autoFilter ref="A2:L17" xr:uid="{B571152E-B787-4B1B-A762-7A2FA87B9860}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C3B82FE4-D046-45AF-AF74-0526236F68DF}" name="Jenny Jacob" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{9DF94077-FC4B-4A43-A22A-417D93FD8072}" name="Thomas Marine" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{9AB17D12-3507-4A0F-B681-A659C87D1C4F}" name="Lunden Carpenter" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{44F9C8D0-DF09-4956-9E49-306C5C2AD92C}" name="Roger Samson" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{C3B82FE4-D046-45AF-AF74-0526236F68DF}" name="Jenny Jacob" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{9DF94077-FC4B-4A43-A22A-417D93FD8072}" name="Thomas Marine" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{9AB17D12-3507-4A0F-B681-A659C87D1C4F}" name="Lunden Carpenter" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{44F9C8D0-DF09-4956-9E49-306C5C2AD92C}" name="Roger Samson" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3476,39 +3911,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01F1D35B-6A48-49F5-BDC5-656D37D73964}" name="Table4" displayName="Table4" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{FB7F20C5-8E1F-4942-8321-3C2F120460D0}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{C78A4075-0EF2-4D57-B80C-F32F0AF489D1}" name="Bobby Willen" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{C78A4075-0EF2-4D57-B80C-F32F0AF489D1}" name="Bobby Willen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="78">
   <autoFilter ref="A2:L17" xr:uid="{3CBFC014-D0CB-43BA-A42D-C18DF1A4E814}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3518,18 +3953,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C5C6540F-C2CE-4B84-BBD7-B4CC452B105D}" name="Table47" displayName="Table47" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{BD8C5B98-CFC7-450F-B688-95E8B9CF7D7A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3840,22 +4275,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="4" bestFit="1" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="27" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="38.140625" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3877,41 +4312,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -3921,111 +4356,111 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="0" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -4034,45 +4469,45 @@
       <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="0" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -4082,26 +4517,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -4110,7 +4545,7 @@
       <c r="I7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -4120,131 +4555,131 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>112</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -4253,254 +4688,254 @@
       <c r="F11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="0" t="s">
         <v>158</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>172</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" ht="18.75">
       <c r="A18" s="38" t="s">
         <v>198</v>
       </c>
@@ -4516,7 +4951,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="7" t="s">
         <v>199</v>
       </c>
@@ -4524,105 +4959,105 @@
         <v>200</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>633</v>
+        <v>215</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75">
       <c r="A22" s="38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -4636,622 +5071,623 @@
       <c r="K22" s="39"/>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="37" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J26" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="K26" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="J28" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>203</v>
-      </c>
       <c r="G32" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>200</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L35" s="33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L36" s="33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L38" s="33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -5269,25 +5705,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="21" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="20" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="30" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="40.28515625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75">
       <c r="A1" s="38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -5301,41 +5737,41 @@
       <c r="K1" s="39"/>
       <c r="L1" s="40"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -5345,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
@@ -5368,13 +5804,13 @@
         <v>31</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>28</v>
@@ -5389,9 +5825,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>44</v>
@@ -5403,7 +5839,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>30</v>
@@ -5412,7 +5848,7 @@
         <v>49</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>40</v>
@@ -5427,7 +5863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="24" t="s">
         <v>54</v>
       </c>
@@ -5438,7 +5874,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>59</v>
@@ -5468,7 +5904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="25" t="s">
         <v>74</v>
       </c>
@@ -5476,7 +5912,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>73</v>
@@ -5491,13 +5927,13 @@
         <v>51</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>76</v>
@@ -5506,15 +5942,15 @@
         <v>68</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>24</v>
@@ -5526,10 +5962,10 @@
         <v>84</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>45</v>
@@ -5547,10 +5983,10 @@
         <v>20</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="24" t="s">
         <v>192</v>
       </c>
@@ -5558,16 +5994,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>86</v>
@@ -5579,24 +6015,24 @@
         <v>99</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L8" s="24" t="s">
         <v>92</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>147</v>
@@ -5605,7 +6041,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>107</v>
@@ -5614,7 +6050,7 @@
         <v>156</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>78</v>
@@ -5629,10 +6065,10 @@
         <v>104</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="24" t="s">
         <v>165</v>
       </c>
@@ -5643,7 +6079,7 @@
         <v>121</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>88</v>
@@ -5661,7 +6097,7 @@
         <v>166</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>110</v>
@@ -5670,15 +6106,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>157</v>
@@ -5690,30 +6126,30 @@
         <v>108</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>149</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>109</v>
@@ -5722,13 +6158,13 @@
         <v>139</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>138</v>
@@ -5737,7 +6173,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>80</v>
@@ -5746,12 +6182,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>123</v>
@@ -5760,7 +6196,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>41</v>
@@ -5775,27 +6211,27 @@
         <v>89</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="24" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>168</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>184</v>
@@ -5807,30 +6243,30 @@
         <v>140</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>173</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>188</v>
@@ -5851,7 +6287,7 @@
         <v>187</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>162</v>
@@ -5860,12 +6296,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>83</v>
@@ -5880,13 +6316,13 @@
         <v>82</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>170</v>
@@ -5895,50 +6331,50 @@
         <v>196</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>172</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L17" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" ht="18.75">
       <c r="A18" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -5952,7 +6388,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5963,14 +6399,14 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -5981,14 +6417,14 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="12" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5999,16 +6435,16 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75">
       <c r="A22" s="38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -6022,646 +6458,647 @@
       <c r="K22" s="39"/>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>388</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="J37" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>490</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>562</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>580</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>592</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>459</v>
-      </c>
       <c r="K37" s="30" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="30" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="J39" s="30" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -6679,25 +7116,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="28" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="20" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="30" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="18" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="21" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="24" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="23" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75">
       <c r="A1" s="38" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6711,41 +7148,41 @@
       <c r="K1" s="39"/>
       <c r="L1" s="40"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -6755,7 +7192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -6771,7 +7208,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -6785,7 +7222,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -6802,12 +7239,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -6821,12 +7258,12 @@
       </c>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -6836,11 +7273,11 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -6848,7 +7285,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -6858,7 +7295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -6871,10 +7308,10 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -6888,7 +7325,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -6902,7 +7339,7 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -6910,7 +7347,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -6918,7 +7355,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -6928,13 +7365,13 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6944,13 +7381,13 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -6964,7 +7401,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -6978,7 +7415,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -6992,9 +7429,9 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" ht="18.75">
       <c r="A18" s="38" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -7008,7 +7445,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7022,7 +7459,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -7036,7 +7473,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7050,9 +7487,9 @@
       <c r="K21" s="14"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" ht="18.75">
       <c r="A22" s="38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -7066,45 +7503,45 @@
       <c r="K22" s="39"/>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -7118,7 +7555,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -7132,7 +7569,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -7146,7 +7583,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -7160,7 +7597,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -7174,7 +7611,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -7188,7 +7625,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -7202,7 +7639,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -7216,7 +7653,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7230,7 +7667,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -7244,7 +7681,7 @@
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -7258,7 +7695,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -7272,7 +7709,7 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -7286,7 +7723,7 @@
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -7300,7 +7737,7 @@
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -7314,7 +7751,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -7329,12 +7766,13 @@
       <c r="L39" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
+++ b/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OHMI Keeper League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OHMI Keeper League\OHMI Keeper League\OHMI Keeper League\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF0A5C-31AD-4541-BC6D-021542D694CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28475A13-E954-4C5B-9584-4DC2492A7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1AD674E2-9FC2-4BF1-99C5-DC8373CC2B72}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1AD674E2-9FC2-4BF1-99C5-DC8373CC2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1448,7 @@
     <t>Phillip Rivers (15)</t>
   </si>
   <si>
-    <t>Deshaun Watson (15)</t>
+    <t>Deshaun Watson (5)</t>
   </si>
   <si>
     <t>Russell Wilson (7)</t>
@@ -1562,7 +1562,7 @@
     <t>Ito Smith (15)</t>
   </si>
   <si>
-    <t>DAndre Swift (15)</t>
+    <t>DAndre Swift (4)</t>
   </si>
   <si>
     <t>Melvin Gordon (NA)</t>
@@ -2282,7 +2282,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="292">
     <dxf>
       <font>
         <b val="0"/>
@@ -3808,6 +3808,4444 @@
           <color auto="1"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3870,16 +8308,16 @@
   <autoFilter ref="A23:L38" xr:uid="{6D1E31A7-B4EC-4E3C-8393-5CFDF5653B2B}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7EB82C97-42E3-4FCE-9574-1B534017ED30}" name="Roger Samson" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="281"/>
     <tableColumn id="3" xr3:uid="{1697134F-DA9F-4361-8B35-DC312C252ACD}" name="Bobby Willen" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="281"/>
     <tableColumn id="5" xr3:uid="{4F371280-67D4-441F-9A55-2BB98A5426DC}" name="Andrew Giza" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{CAE0746F-44BA-499F-B839-F27EB0F8ED89}" name="Jenny Jacob" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="282"/>
+    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="282"/>
+    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="281"/>
+    <tableColumn id="9" xr3:uid="{CAE0746F-44BA-499F-B839-F27EB0F8ED89}" name="Jenny Jacob" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="283"/>
+    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="283"/>
     <tableColumn id="12" xr3:uid="{A2BBB2B5-1152-4CE8-8C27-5D96BA423A84}" name="Michael Doney" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3887,21 +8325,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="282">
   <autoFilter ref="A2:L17" xr:uid="{B571152E-B787-4B1B-A762-7A2FA87B9860}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C3B82FE4-D046-45AF-AF74-0526236F68DF}" name="Jenny Jacob" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="284"/>
     <tableColumn id="3" xr3:uid="{9DF94077-FC4B-4A43-A22A-417D93FD8072}" name="Thomas Marine" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="284"/>
     <tableColumn id="5" xr3:uid="{9AB17D12-3507-4A0F-B681-A659C87D1C4F}" name="Lunden Carpenter" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{44F9C8D0-DF09-4956-9E49-306C5C2AD92C}" name="Roger Samson" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="285"/>
+    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="285"/>
+    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="284"/>
+    <tableColumn id="9" xr3:uid="{44F9C8D0-DF09-4956-9E49-306C5C2AD92C}" name="Roger Samson" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="286"/>
+    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="286"/>
+    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="285"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3911,17 +8349,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01F1D35B-6A48-49F5-BDC5-656D37D73964}" name="Table4" displayName="Table4" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{FB7F20C5-8E1F-4942-8321-3C2F120460D0}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="281"/>
+    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="287"/>
+    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="281"/>
+    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="288"/>
+    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="287"/>
+    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="283"/>
+    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="282"/>
+    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="289"/>
     <tableColumn id="12" xr3:uid="{C78A4075-0EF2-4D57-B80C-F32F0AF489D1}" name="Bobby Willen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3929,21 +8367,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="288">
   <autoFilter ref="A2:L17" xr:uid="{3CBFC014-D0CB-43BA-A42D-C18DF1A4E814}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="287"/>
+    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="283"/>
+    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="282"/>
+    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="281"/>
+    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="290"/>
+    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="290"/>
+    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="290"/>
+    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="290"/>
+    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="290"/>
+    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="290"/>
+    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="290"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3953,18 +8391,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C5C6540F-C2CE-4B84-BBD7-B4CC452B105D}" name="Table47" displayName="Table47" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{BD8C5B98-CFC7-450F-B688-95E8B9CF7D7A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="290"/>
+    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="290"/>
+    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="290"/>
+    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="290"/>
+    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="290"/>
+    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="290"/>
+    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="290"/>
+    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="290"/>
+    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="290"/>
+    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="290"/>
+    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="290"/>
+    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="291"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4269,7 +8707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A173BDB7-EC53-4522-8E61-1C0095B93BB7}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -5699,8 +10137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5929C2CF-96DE-4153-9E90-28878068E8D4}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7100,8 +11538,8 @@
   <pageSetup orientation="portrait"/>
   <headerFooter/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
+++ b/OHMI Keeper League/Reports/OHMI Keeper League History.xlsx
@@ -2282,7 +2282,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="292">
+  <dxfs count="336">
     <dxf>
       <font>
         <b val="0"/>
@@ -7706,6 +7706,876 @@
         <family val="2"/>
         <vertAlign val="baseline"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -8308,16 +9178,16 @@
   <autoFilter ref="A23:L38" xr:uid="{6D1E31A7-B4EC-4E3C-8393-5CFDF5653B2B}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7EB82C97-42E3-4FCE-9574-1B534017ED30}" name="Roger Samson" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="281"/>
+    <tableColumn id="2" xr3:uid="{AE96AD4A-B052-4211-9C54-A9A436468DBD}" name="Thomas Marine" dataDxfId="325"/>
     <tableColumn id="3" xr3:uid="{1697134F-DA9F-4361-8B35-DC312C252ACD}" name="Bobby Willen" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="281"/>
-    <tableColumn id="5" xr3:uid="{4F371280-67D4-441F-9A55-2BB98A5426DC}" name="Andrew Giza" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="282"/>
-    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="281"/>
+    <tableColumn id="4" xr3:uid="{A7094CB5-00DC-48B7-8E0D-C1302F398882}" name="George Jacob" dataDxfId="326"/>
+    <tableColumn id="5" xr3:uid="{4F371280-67D4-441F-9A55-2BB98A5426DC}" name="Andrew Giza" dataDxfId="325"/>
+    <tableColumn id="6" xr3:uid="{1BF0DAE2-3211-4DB8-B58E-49A4DF513562}" name="Gail Doney" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{27DBB73E-3B3E-4FFB-ABCF-2CB841C4C78F}" name="Lunden Carpenter" dataDxfId="326"/>
+    <tableColumn id="8" xr3:uid="{A3C04AE6-FF0A-4DAA-9AFE-645551739B8C}" name="Brien Garvey" dataDxfId="325"/>
     <tableColumn id="9" xr3:uid="{CAE0746F-44BA-499F-B839-F27EB0F8ED89}" name="Jenny Jacob" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="283"/>
-    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="283"/>
+    <tableColumn id="10" xr3:uid="{8791CD03-CEBF-4C5A-8B4A-DE3CFCE5C356}" name="Torin Carpenter" dataDxfId="327"/>
+    <tableColumn id="11" xr3:uid="{40084C7E-6F6E-47A8-82C8-CFB168FAB423}" name="Tom Doney" dataDxfId="326"/>
     <tableColumn id="12" xr3:uid="{A2BBB2B5-1152-4CE8-8C27-5D96BA423A84}" name="Michael Doney" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8325,21 +9195,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99435809-3CE5-4ABE-A3A1-F1F0D59F550A}" name="Table13" displayName="Table13" ref="A2:L17" totalsRowShown="0" dataDxfId="325">
   <autoFilter ref="A2:L17" xr:uid="{B571152E-B787-4B1B-A762-7A2FA87B9860}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C3B82FE4-D046-45AF-AF74-0526236F68DF}" name="Jenny Jacob" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="284"/>
+    <tableColumn id="2" xr3:uid="{0C8A4032-5CA4-43B8-B82E-D518CB9C14F3}" name="Andrew Giza" dataDxfId="328"/>
     <tableColumn id="3" xr3:uid="{9DF94077-FC4B-4A43-A22A-417D93FD8072}" name="Thomas Marine" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{9AB17D12-3507-4A0F-B681-A659C87D1C4F}" name="Lunden Carpenter" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="285"/>
-    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="285"/>
-    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="284"/>
+    <tableColumn id="4" xr3:uid="{3DD972C9-75EC-4C62-AD4D-251EA36F5031}" name="Brien Garvey" dataDxfId="329"/>
+    <tableColumn id="5" xr3:uid="{9AB17D12-3507-4A0F-B681-A659C87D1C4F}" name="Lunden Carpenter" dataDxfId="328"/>
+    <tableColumn id="6" xr3:uid="{D962B687-AD61-412F-9289-90F1BD37D21F}" name="George Jacob" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{F4C5893F-74CD-4FC4-ADA5-C3F6722D33AA}" name="Torin Carpenter" dataDxfId="329"/>
+    <tableColumn id="8" xr3:uid="{33F7C0AC-912B-416F-8931-117B9FB337B1}" name="Gail Doney" dataDxfId="328"/>
     <tableColumn id="9" xr3:uid="{44F9C8D0-DF09-4956-9E49-306C5C2AD92C}" name="Roger Samson" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="286"/>
-    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="286"/>
-    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="285"/>
+    <tableColumn id="10" xr3:uid="{CE33B7BA-BCC5-404F-A7CA-4D6C61C5DCEA}" name="Michael Doney " dataDxfId="330"/>
+    <tableColumn id="11" xr3:uid="{BE5765DA-3C33-40D4-B0FD-F296D068BE5B}" name="Tom Doney" dataDxfId="329"/>
+    <tableColumn id="12" xr3:uid="{F8758F23-3C0A-4D98-8E7E-E0A8B908FB33}" name="Bobby Willen" dataDxfId="328"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8349,17 +9219,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01F1D35B-6A48-49F5-BDC5-656D37D73964}" name="Table4" displayName="Table4" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{FB7F20C5-8E1F-4942-8321-3C2F120460D0}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="281"/>
-    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="287"/>
-    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="281"/>
-    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="288"/>
-    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="287"/>
-    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="283"/>
-    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="282"/>
-    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="289"/>
+    <tableColumn id="1" xr3:uid="{C5AD80A0-081F-4585-95D4-9B6F05D62E7B}" name="Jenny Jacob" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{ADF0476F-FC03-4F59-9FAB-6898AF56ABEC}" name="Andrew Giza" dataDxfId="331"/>
+    <tableColumn id="3" xr3:uid="{84058636-58C7-47BC-94A7-C88869BC7198}" name="Thomas Marine" dataDxfId="327"/>
+    <tableColumn id="4" xr3:uid="{8E746FDB-4F59-41CD-A613-06767DF91430}" name="Brien Garvey" dataDxfId="332"/>
+    <tableColumn id="5" xr3:uid="{649CA4BB-41E8-42A8-881E-0534B39B4461}" name="Lunden Carpenter" dataDxfId="331"/>
+    <tableColumn id="6" xr3:uid="{60F06DB8-F247-40B6-A89E-F6C34B9F5DF8}" name="George Jacob" dataDxfId="327"/>
+    <tableColumn id="7" xr3:uid="{58B98002-2945-49D3-96CD-DF6C314B51E2}" name="Torin Carpenter" dataDxfId="326"/>
+    <tableColumn id="8" xr3:uid="{6A578E7E-BD9E-4CAB-961D-A26349EDB579}" name="Gail Doney" dataDxfId="325"/>
+    <tableColumn id="9" xr3:uid="{BDC41DA9-A82E-4988-8265-7087AB335D61}" name="Roger Samson" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4CE5CA15-77B1-4552-A5CF-A5C2C5019F8A}" name="Michael Doney " dataDxfId="331"/>
+    <tableColumn id="11" xr3:uid="{225AB928-DA6A-4DBA-A1B8-46DF9001B7FB}" name="Tom Doney" dataDxfId="327"/>
     <tableColumn id="12" xr3:uid="{C78A4075-0EF2-4D57-B80C-F32F0AF489D1}" name="Bobby Willen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8367,21 +9237,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D34F583-F0B2-4E55-8A02-8146ADAEA4FF}" name="Table134" displayName="Table134" ref="A2:L17" totalsRowShown="0" dataDxfId="326">
   <autoFilter ref="A2:L17" xr:uid="{3CBFC014-D0CB-43BA-A42D-C18DF1A4E814}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="283"/>
-    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="282"/>
-    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="281"/>
-    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="290"/>
-    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="290"/>
-    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="290"/>
-    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="290"/>
-    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="290"/>
-    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="290"/>
-    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="290"/>
+    <tableColumn id="1" xr3:uid="{B40AE69B-D3B2-4FEE-87A0-5FDBDADEBF84}" name="Thomas Marine" dataDxfId="325"/>
+    <tableColumn id="2" xr3:uid="{88452D81-159E-498E-8D7C-71B2B602507C}" name="Torin Carpenter" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F3F77B74-1CA5-4911-8C46-988BD98FF2E8}" name="Tom Doney" dataDxfId="333"/>
+    <tableColumn id="4" xr3:uid="{785128EC-B021-47AE-AB4A-2DF9074CF5AF}" name="Bobby Willen" dataDxfId="332"/>
+    <tableColumn id="5" xr3:uid="{90408343-14CF-4BBD-969D-568A539F91CA}" name="Roger Samson" dataDxfId="331"/>
+    <tableColumn id="6" xr3:uid="{5CE9B693-42D2-4E5E-8B9F-4E851897661D}" name="Jenny Jacob" dataDxfId="327"/>
+    <tableColumn id="7" xr3:uid="{A21ACC93-6E0C-49B1-972B-6695089E1F65}" name="Brien Garvey" dataDxfId="326"/>
+    <tableColumn id="8" xr3:uid="{7A0516F8-1498-467A-96E6-20ADC4F64A59}" name="Gail Doney" dataDxfId="325"/>
+    <tableColumn id="9" xr3:uid="{F418EEAE-2769-47EC-8FE8-AA58BDD44C02}" name="Andrew Giza" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{8CA29E31-8827-4726-921D-E46D857CB101}" name="Lunden Carpenter" dataDxfId="334"/>
+    <tableColumn id="11" xr3:uid="{C3388BB1-85BF-4413-B8A5-21400871197A}" name="George Jacob" dataDxfId="334"/>
+    <tableColumn id="12" xr3:uid="{97713D73-843E-4222-A6D8-649D5AEC509E}" name="Michael Doney" dataDxfId="334"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8391,18 +9261,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C5C6540F-C2CE-4B84-BBD7-B4CC452B105D}" name="Table47" displayName="Table47" ref="A23:L39" totalsRowShown="0">
   <autoFilter ref="A23:L39" xr:uid="{BD8C5B98-CFC7-450F-B688-95E8B9CF7D7A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="290"/>
-    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="290"/>
-    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="290"/>
-    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="290"/>
-    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="290"/>
-    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="290"/>
-    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="290"/>
-    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="290"/>
-    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="290"/>
-    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="290"/>
-    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="290"/>
-    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="291"/>
+    <tableColumn id="1" xr3:uid="{A781B11D-4B31-4EF8-A925-63F490C1185E}" name="Thomas Marine" dataDxfId="334"/>
+    <tableColumn id="2" xr3:uid="{3D20D3AC-93A2-4671-9624-85F51DCFFD8E}" name="Torin Carpenter" dataDxfId="334"/>
+    <tableColumn id="3" xr3:uid="{ADE2799B-1AB5-48EC-BA25-FE0A18F1F549}" name="Tom Doney" dataDxfId="334"/>
+    <tableColumn id="4" xr3:uid="{E14E2964-0AFB-499C-A964-BEF11EE0ABB7}" name="Bobby Willen" dataDxfId="334"/>
+    <tableColumn id="5" xr3:uid="{4B20ECAD-AB15-4EA1-9986-5B7D305AD9A4}" name="Roger Samson" dataDxfId="334"/>
+    <tableColumn id="6" xr3:uid="{588E9CD8-75B1-4658-9681-909F0554D32C}" name="Jenny Jacob" dataDxfId="334"/>
+    <tableColumn id="7" xr3:uid="{C8F31D94-3663-469D-AE6A-F9BB2904DB06}" name="Brien Garvey" dataDxfId="334"/>
+    <tableColumn id="8" xr3:uid="{893578A2-EE73-47F7-A539-EAA7FFAE77FA}" name="Gail Doney" dataDxfId="334"/>
+    <tableColumn id="9" xr3:uid="{153B60A7-9F8F-414D-934D-8FD3DFABA48B}" name="Andrew Giza" dataDxfId="334"/>
+    <tableColumn id="10" xr3:uid="{C524262C-9663-4C1C-BC8C-03595C990110}" name="Lunden Carpenter" dataDxfId="334"/>
+    <tableColumn id="11" xr3:uid="{7CF0C022-290E-4838-86B9-1DAA6D0BC8CC}" name="George Jacob" dataDxfId="334"/>
+    <tableColumn id="12" xr3:uid="{F344FC72-8F7A-4E49-AC5C-96F35E2428C8}" name="Michael Doney" dataDxfId="335"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
